--- a/Results/whole_dataset/whole_dataset_apriori_top_category_combinations.xlsx
+++ b/Results/whole_dataset/whole_dataset_apriori_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1248</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>650</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4">
@@ -492,97 +492,97 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>490</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Storage &amp; Organization</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Kids &amp; Toys</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Storage &amp; Organization</t>
-        </is>
-      </c>
       <c r="C5" t="n">
-        <v>154</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Storage &amp; Organization</t>
+          <t>Kids &amp; Toys</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kids &amp; Toys</t>
+          <t>Storage &amp; Organization</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>154</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Storage &amp; Organization</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Fashion &amp; Accessories</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Storage &amp; Organization</t>
-        </is>
-      </c>
       <c r="C7" t="n">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Storage &amp; Organization</t>
+          <t>Fashion &amp; Accessories</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Storage &amp; Organization</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Storage &amp; Organization</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Storage &amp; Organization</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Storage &amp; Organization</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Kitchen &amp; Dining</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Storage &amp; Organization</t>
-        </is>
-      </c>
       <c r="C10" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Results/whole_dataset/whole_dataset_apriori_top_category_combinations.xlsx
+++ b/Results/whole_dataset/whole_dataset_apriori_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1282</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>668</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Results/whole_dataset/whole_dataset_apriori_top_category_combinations.xlsx
+++ b/Results/whole_dataset/whole_dataset_apriori_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1362</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>682</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4">
@@ -492,28 +492,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>540</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Kids &amp; Toys</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Storage &amp; Organization</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Kids &amp; Toys</t>
-        </is>
-      </c>
       <c r="C5" t="n">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kids &amp; Toys</t>
+          <t>Fashion &amp; Accessories</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>189</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -537,67 +537,67 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>170</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Storage &amp; Organization</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Storage &amp; Organization</t>
+          <t>Kids &amp; Toys</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Fashion &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Kitchen &amp; Dining</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Storage &amp; Organization</t>
-        </is>
-      </c>
       <c r="C9" t="n">
-        <v>134</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Storage &amp; Organization</t>
+          <t>Kids &amp; Toys</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Kids &amp; Toys</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>134</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>132</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Results/whole_dataset/whole_dataset_apriori_top_category_combinations.xlsx
+++ b/Results/whole_dataset/whole_dataset_apriori_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>783</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>562</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>316</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5">
@@ -507,37 +507,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>146</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Storage &amp; Organization</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Storage &amp; Organization</t>
+          <t>Kids &amp; Toys</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>103</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Fashion &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Storage &amp; Organization</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fashion &amp; Accessories</t>
-        </is>
-      </c>
       <c r="C7" t="n">
-        <v>91</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
@@ -548,56 +548,56 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kids &amp; Toys</t>
+          <t>Fashion &amp; Accessories</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Storage &amp; Organization</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>65</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kids &amp; Toys</t>
+          <t>Fashion &amp; Accessories</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kids &amp; Toys</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>63</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Home Decor</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Home Decor</t>
+          <t>Fashion &amp; Accessories</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>62</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
